--- a/Documents/AP.xlsx
+++ b/Documents/AP.xlsx
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,6 +80,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C52" totalsRowShown="0">
+  <autoFilter ref="A1:C52"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Week"/>
+    <tableColumn id="2" name="Prob"/>
+    <tableColumn id="3" name="Solved"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +357,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>278</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>354</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>548</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>542</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>359</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>195</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>192</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>190</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>381</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>556</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>438</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>126</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>134</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>375</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>172</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>174</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>378</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>207</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>507</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>217</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>218</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>329</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>259</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>446</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>350</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>356</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>146</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>165</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>373</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>308</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>143</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>176</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>178</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>362</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>563</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>377</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>214</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>361</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>411</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>462</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>156</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>209</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>248</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>210</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>385</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>420</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>314</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>185</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>622</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>